--- a/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SynologyDrive\J教学资料\课程设计\2022秋季组成原理课程设计\2022秋硬件综合训练课设资料发布包\cpu21-riscv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\HUST_RISC-V_CPU\cpu21-riscv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D0AF84-3A1B-4246-8BE7-C73B84408BC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEFB1E5-A7AF-46C0-8E5B-79B6ACBD051F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,23 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">控制信号表达式生成!$A$1:$AI$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">真值表!$A$1:$AK$25</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="119">
   <si>
     <t>#</t>
   </si>
@@ -920,6 +931,18 @@
 注意显示逻辑需要考虑如何锁存过去的数据，否则数据一闪而过。</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>1C</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>1B</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1656,107 +1679,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2150,7 +2073,8 @@
   <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -2301,70 +2225,80 @@
       <c r="B2" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="20" t="str">
+      <c r="C2" s="37">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="20">
         <f>IF(ISNUMBER($C2),IF(MOD($C2,64)/32&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="G2" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20">
         <f>IF(ISNUMBER($C2),IF(MOD($C2,2)&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="H2" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H2" s="20">
         <f t="shared" ref="H2:H35" si="0">IF(ISNUMBER($D2),IF(MOD($D2,8)/4&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="I2" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20">
         <f t="shared" ref="I2:I35" si="1">IF(ISNUMBER($D2),IF(MOD($D2,4)/2&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="J2" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J2" s="29">
         <f t="shared" ref="J2:J35" si="2">IF(ISNUMBER($D2),IF(MOD($D2,2)&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="K2" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K2" s="36">
         <f t="shared" ref="K2:K35" si="3">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),32)/16&gt;=1,1,0))</f>
-        <v/>
-      </c>
-      <c r="L2" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L2" s="36">
         <f t="shared" ref="L2:L35" si="4">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),16)/8&gt;=1,1,0))</f>
-        <v/>
-      </c>
-      <c r="M2" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M2" s="36">
         <f t="shared" ref="M2:M35" si="5">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),8)/4&gt;=1,1,0))</f>
-        <v/>
-      </c>
-      <c r="N2" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N2" s="36">
         <f t="shared" ref="N2:N35" si="6">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),4)/2&gt;=1,1,0))</f>
-        <v/>
-      </c>
-      <c r="O2" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O2" s="64">
         <f t="shared" ref="O2:O35" si="7">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),2)&gt;=1,1,0))</f>
-        <v/>
-      </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" s="38">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="39">
         <f t="shared" ref="Q2:Q35" si="8">IF(ISNUMBER($P2),IF(MOD($P2,16)/8&gt;=1,1,0),"X")</f>
-        <v>X</v>
-      </c>
-      <c r="R2" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R2" s="39">
         <f t="shared" ref="R2:R35" si="9">IF(ISNUMBER($P2),IF(MOD($P2,8)/4&gt;=1,1,0),"X")</f>
-        <v>X</v>
-      </c>
-      <c r="S2" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="S2" s="39">
         <f t="shared" ref="S2:S35" si="10">IF(ISNUMBER($P2),IF(MOD($P2,4)/2&gt;=1,1,0),"X")</f>
-        <v>X</v>
-      </c>
-      <c r="T2" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="T2" s="39">
         <f t="shared" ref="T2:T35" si="11">IF(ISNUMBER($P2),IF(MOD($P2,2)&gt;=1,1,0),"X")</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U2" s="31"/>
       <c r="V2" s="31"/>
       <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
+      <c r="X2" s="31">
+        <v>1</v>
+      </c>
       <c r="Y2" s="31"/>
       <c r="Z2" s="31"/>
       <c r="AA2" s="31"/>
@@ -2388,70 +2322,80 @@
       <c r="B3" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="59" t="str">
+      <c r="C3" s="44">
+        <v>32</v>
+      </c>
+      <c r="D3" s="59">
+        <v>0</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="59">
         <f t="shared" ref="F3:F61" si="12">IF(ISNUMBER($C3),IF(MOD($C3,64)/32&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="G3" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3" s="59">
         <f t="shared" ref="G3:G61" si="13">IF(ISNUMBER($C3),IF(MOD($C3,2)&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="H3" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="H3" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I3" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="I3" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J3" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="J3" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K3" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="K3" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L3" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L3" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M3" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M3" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N3" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N3" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O3" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O3" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P3" s="62">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R3" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="R3" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S3" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="S3" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T3" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="T3" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U3" s="57"/>
       <c r="V3" s="57"/>
       <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
+      <c r="X3" s="57">
+        <v>1</v>
+      </c>
       <c r="Y3" s="57"/>
       <c r="Z3" s="57"/>
       <c r="AA3" s="57"/>
@@ -2475,70 +2419,80 @@
       <c r="B4" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="20" t="str">
+      <c r="C4" s="37">
+        <v>0</v>
+      </c>
+      <c r="D4" s="37">
+        <v>7</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="20">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G4" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G4" s="20">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H4" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I4" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J4" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="J4" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K4" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="K4" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L4" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L4" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M4" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M4" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N4" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N4" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O4" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O4" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P4" s="38">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R4" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R4" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S4" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="S4" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T4" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="T4" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U4" s="31"/>
       <c r="V4" s="31"/>
       <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
+      <c r="X4" s="31">
+        <v>1</v>
+      </c>
       <c r="Y4" s="31"/>
       <c r="Z4" s="31"/>
       <c r="AA4" s="31"/>
@@ -2562,70 +2516,80 @@
       <c r="B5" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="59" t="str">
+      <c r="C5" s="44">
+        <v>0</v>
+      </c>
+      <c r="D5" s="59">
+        <v>6</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="59">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G5" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="G5" s="59">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H5" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I5" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="I5" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J5" s="61" t="str">
+        <v>1</v>
+      </c>
+      <c r="J5" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K5" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="K5" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L5" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L5" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M5" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M5" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N5" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N5" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O5" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O5" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P5" s="62">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R5" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="R5" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S5" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="S5" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T5" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T5" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U5" s="57"/>
       <c r="V5" s="57"/>
       <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
+      <c r="X5" s="57">
+        <v>1</v>
+      </c>
       <c r="Y5" s="57"/>
       <c r="Z5" s="57"/>
       <c r="AA5" s="57"/>
@@ -2649,70 +2613,80 @@
       <c r="B6" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="20" t="str">
+      <c r="C6" s="37">
+        <v>0</v>
+      </c>
+      <c r="D6" s="37">
+        <v>2</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="20">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G6" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H6" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I6" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J6" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="J6" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K6" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K6" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L6" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L6" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M6" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M6" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N6" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N6" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O6" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O6" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P6" s="38">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R6" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="R6" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S6" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="S6" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T6" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="T6" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U6" s="31"/>
       <c r="V6" s="31"/>
       <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
+      <c r="X6" s="31">
+        <v>1</v>
+      </c>
       <c r="Y6" s="31"/>
       <c r="Z6" s="31"/>
       <c r="AA6" s="31"/>
@@ -2736,70 +2710,80 @@
       <c r="B7" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="59" t="str">
+      <c r="C7" s="44">
+        <v>0</v>
+      </c>
+      <c r="D7" s="59">
+        <v>3</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="59">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G7" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" s="59">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H7" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="H7" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I7" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="I7" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J7" s="61" t="str">
+        <v>1</v>
+      </c>
+      <c r="J7" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K7" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="K7" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L7" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L7" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M7" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M7" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N7" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N7" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O7" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O7" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P7" s="62">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R7" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="R7" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S7" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="S7" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T7" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T7" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U7" s="57"/>
       <c r="V7" s="57"/>
       <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
+      <c r="X7" s="57">
+        <v>1</v>
+      </c>
       <c r="Y7" s="57"/>
       <c r="Z7" s="57"/>
       <c r="AA7" s="57"/>
@@ -2824,8 +2808,12 @@
         <v>76</v>
       </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="37">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>4</v>
+      </c>
       <c r="F8" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -2834,59 +2822,65 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H8" s="20" t="str">
+      <c r="H8" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I8" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J8" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K8" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K8" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L8" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L8" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M8" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="M8" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N8" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N8" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O8" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O8" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P8" s="38">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R8" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R8" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S8" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="S8" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T8" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="T8" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U8" s="31"/>
       <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
+      <c r="W8" s="31">
+        <v>1</v>
+      </c>
+      <c r="X8" s="31">
+        <v>1</v>
+      </c>
       <c r="Y8" s="31"/>
       <c r="Z8" s="31"/>
       <c r="AA8" s="31"/>
@@ -2911,8 +2905,12 @@
         <v>81</v>
       </c>
       <c r="C9" s="44"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="61"/>
+      <c r="D9" s="59">
+        <v>7</v>
+      </c>
+      <c r="E9" s="61">
+        <v>4</v>
+      </c>
       <c r="F9" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -2921,59 +2919,65 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H9" s="59" t="str">
+      <c r="H9" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I9" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="I9" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J9" s="61" t="str">
+        <v>1</v>
+      </c>
+      <c r="J9" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K9" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="K9" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L9" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L9" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M9" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="M9" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N9" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N9" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O9" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O9" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P9" s="62">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R9" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="R9" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S9" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="S9" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T9" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="T9" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U9" s="57"/>
       <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
+      <c r="W9" s="57">
+        <v>1</v>
+      </c>
+      <c r="X9" s="57">
+        <v>1</v>
+      </c>
       <c r="Y9" s="57"/>
       <c r="Z9" s="57"/>
       <c r="AA9" s="57"/>
@@ -2998,8 +3002,12 @@
         <v>83</v>
       </c>
       <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="29"/>
+      <c r="D10" s="37">
+        <v>6</v>
+      </c>
+      <c r="E10" s="29">
+        <v>4</v>
+      </c>
       <c r="F10" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3008,59 +3016,65 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H10" s="20" t="str">
+      <c r="H10" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I10" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I10" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J10" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="J10" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K10" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K10" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L10" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L10" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M10" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="M10" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N10" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N10" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O10" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O10" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P10" s="38">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R10" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="R10" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S10" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="S10" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T10" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="T10" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U10" s="31"/>
       <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
+      <c r="W10" s="31">
+        <v>1</v>
+      </c>
+      <c r="X10" s="31">
+        <v>1</v>
+      </c>
       <c r="Y10" s="31"/>
       <c r="Z10" s="31"/>
       <c r="AA10" s="31"/>
@@ -3085,8 +3099,12 @@
         <v>84</v>
       </c>
       <c r="C11" s="44"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="61"/>
+      <c r="D11" s="59">
+        <v>4</v>
+      </c>
+      <c r="E11" s="61">
+        <v>4</v>
+      </c>
       <c r="F11" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3095,59 +3113,65 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H11" s="59" t="str">
+      <c r="H11" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="I11" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J11" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="J11" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K11" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="K11" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L11" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L11" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M11" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="M11" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N11" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N11" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O11" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O11" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P11" s="62">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R11" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="R11" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S11" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="S11" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T11" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T11" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U11" s="57"/>
       <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
+      <c r="W11" s="57">
+        <v>1</v>
+      </c>
+      <c r="X11" s="57">
+        <v>1</v>
+      </c>
       <c r="Y11" s="57"/>
       <c r="Z11" s="57"/>
       <c r="AA11" s="57"/>
@@ -3172,8 +3196,12 @@
         <v>85</v>
       </c>
       <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="29"/>
+      <c r="D12" s="37">
+        <v>2</v>
+      </c>
+      <c r="E12" s="29">
+        <v>4</v>
+      </c>
       <c r="F12" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3182,59 +3210,65 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H12" s="20" t="str">
+      <c r="H12" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I12" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J12" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="J12" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K12" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K12" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L12" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L12" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M12" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="M12" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N12" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N12" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O12" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O12" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P12" s="38">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R12" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="R12" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S12" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="S12" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T12" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="T12" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U12" s="31"/>
       <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
+      <c r="W12" s="31">
+        <v>1</v>
+      </c>
+      <c r="X12" s="31">
+        <v>1</v>
+      </c>
       <c r="Y12" s="31"/>
       <c r="Z12" s="31"/>
       <c r="AA12" s="31"/>
@@ -3258,70 +3292,82 @@
       <c r="B13" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="59" t="str">
+      <c r="C13" s="44">
+        <v>0</v>
+      </c>
+      <c r="D13" s="59">
+        <v>1</v>
+      </c>
+      <c r="E13" s="61">
+        <v>4</v>
+      </c>
+      <c r="F13" s="59">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G13" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="G13" s="59">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H13" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="H13" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I13" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="I13" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J13" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="J13" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K13" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="K13" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L13" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L13" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M13" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="M13" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N13" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N13" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O13" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O13" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P13" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R13" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="R13" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S13" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="S13" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T13" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T13" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U13" s="57"/>
       <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
+      <c r="W13" s="57">
+        <v>1</v>
+      </c>
+      <c r="X13" s="57">
+        <v>1</v>
+      </c>
       <c r="Y13" s="57"/>
       <c r="Z13" s="57"/>
       <c r="AA13" s="57"/>
@@ -3345,70 +3391,82 @@
       <c r="B14" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="20" t="str">
+      <c r="C14" s="37">
+        <v>0</v>
+      </c>
+      <c r="D14" s="37">
+        <v>5</v>
+      </c>
+      <c r="E14" s="29">
+        <v>4</v>
+      </c>
+      <c r="F14" s="20">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G14" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H14" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I14" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I14" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J14" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K14" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="K14" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L14" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L14" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M14" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="M14" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N14" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N14" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O14" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O14" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P14" s="38">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R14" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R14" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S14" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="S14" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T14" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="T14" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U14" s="31"/>
       <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
+      <c r="W14" s="31">
+        <v>1</v>
+      </c>
+      <c r="X14" s="31">
+        <v>1</v>
+      </c>
       <c r="Y14" s="31"/>
       <c r="Z14" s="31"/>
       <c r="AA14" s="31"/>
@@ -3432,70 +3490,82 @@
       <c r="B15" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="59" t="str">
+      <c r="C15" s="44">
+        <v>32</v>
+      </c>
+      <c r="D15" s="59">
+        <v>5</v>
+      </c>
+      <c r="E15" s="61">
+        <v>4</v>
+      </c>
+      <c r="F15" s="59">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G15" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="G15" s="59">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H15" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="H15" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I15" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="I15" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J15" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="J15" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K15" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="K15" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L15" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L15" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M15" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="M15" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N15" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N15" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O15" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O15" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P15" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R15" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="R15" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S15" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="S15" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T15" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T15" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U15" s="57"/>
       <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
+      <c r="W15" s="57">
+        <v>1</v>
+      </c>
+      <c r="X15" s="57">
+        <v>1</v>
+      </c>
       <c r="Y15" s="57"/>
       <c r="Z15" s="57"/>
       <c r="AA15" s="57"/>
@@ -3520,8 +3590,12 @@
         <v>89</v>
       </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="29"/>
+      <c r="D16" s="37">
+        <v>2</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
       <c r="F16" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3530,37 +3604,37 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H16" s="20" t="str">
+      <c r="H16" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I16" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J16" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="J16" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K16" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K16" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L16" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L16" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M16" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="M16" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N16" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="N16" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O16" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O16" s="64">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P16" s="38"/>
       <c r="Q16" s="39" t="str">
@@ -3579,10 +3653,16 @@
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="U16" s="31"/>
+      <c r="U16" s="31">
+        <v>1</v>
+      </c>
       <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
+      <c r="W16" s="31">
+        <v>1</v>
+      </c>
+      <c r="X16" s="31">
+        <v>1</v>
+      </c>
       <c r="Y16" s="31"/>
       <c r="Z16" s="31"/>
       <c r="AA16" s="31"/>
@@ -3607,8 +3687,12 @@
         <v>65</v>
       </c>
       <c r="C17" s="44"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="61"/>
+      <c r="D17" s="59">
+        <v>2</v>
+      </c>
+      <c r="E17" s="61">
+        <v>8</v>
+      </c>
       <c r="F17" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3617,37 +3701,37 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H17" s="59" t="str">
+      <c r="H17" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I17" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="I17" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J17" s="61" t="str">
+        <v>1</v>
+      </c>
+      <c r="J17" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K17" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="K17" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L17" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L17" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M17" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M17" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N17" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="N17" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O17" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O17" s="65">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P17" s="62"/>
       <c r="Q17" s="63" t="str">
@@ -3667,11 +3751,17 @@
         <v>X</v>
       </c>
       <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
+      <c r="V17" s="57">
+        <v>1</v>
+      </c>
+      <c r="W17" s="57">
+        <v>1</v>
+      </c>
       <c r="X17" s="57"/>
       <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
+      <c r="Z17" s="57">
+        <v>1</v>
+      </c>
       <c r="AA17" s="57"/>
       <c r="AB17" s="57"/>
       <c r="AC17" s="57"/>
@@ -3693,48 +3783,54 @@
       <c r="B18" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="20" t="str">
+      <c r="C18" s="37">
+        <v>0</v>
+      </c>
+      <c r="D18" s="37">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="20">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G18" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H18" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I18" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J18" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K18" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K18" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L18" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="L18" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M18" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M18" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N18" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N18" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O18" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O18" s="64">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P18" s="38"/>
       <c r="Q18" s="39" t="str">
@@ -3757,7 +3853,9 @@
       <c r="V18" s="31"/>
       <c r="W18" s="31"/>
       <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
+      <c r="Y18" s="31">
+        <v>1</v>
+      </c>
       <c r="Z18" s="31"/>
       <c r="AA18" s="31"/>
       <c r="AB18" s="31"/>
@@ -3781,8 +3879,12 @@
         <v>71</v>
       </c>
       <c r="C19" s="44"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="61"/>
+      <c r="D19" s="59">
+        <v>0</v>
+      </c>
+      <c r="E19" s="61">
+        <v>18</v>
+      </c>
       <c r="F19" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3791,54 +3893,56 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H19" s="59" t="str">
+      <c r="H19" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I19" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="I19" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J19" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="J19" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K19" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="K19" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L19" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L19" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M19" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M19" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N19" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="N19" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O19" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O19" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P19" s="62">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R19" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="R19" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S19" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="S19" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T19" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="T19" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U19" s="57"/>
       <c r="V19" s="57"/>
@@ -3846,7 +3950,9 @@
       <c r="X19" s="57"/>
       <c r="Y19" s="57"/>
       <c r="Z19" s="57"/>
-      <c r="AA19" s="57"/>
+      <c r="AA19" s="57">
+        <v>1</v>
+      </c>
       <c r="AB19" s="57"/>
       <c r="AC19" s="57"/>
       <c r="AD19" s="57"/>
@@ -3868,8 +3974,12 @@
         <v>72</v>
       </c>
       <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="29"/>
+      <c r="D20" s="37">
+        <v>1</v>
+      </c>
+      <c r="E20" s="29">
+        <v>18</v>
+      </c>
       <c r="F20" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3878,54 +3988,56 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H20" s="20" t="str">
+      <c r="H20" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I20" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I20" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J20" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J20" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K20" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="K20" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L20" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="L20" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M20" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M20" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N20" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="N20" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O20" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O20" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P20" s="38">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R20" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R20" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S20" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="S20" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T20" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="T20" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U20" s="31"/>
       <c r="V20" s="31"/>
@@ -3934,7 +4046,9 @@
       <c r="Y20" s="31"/>
       <c r="Z20" s="31"/>
       <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
+      <c r="AB20" s="31">
+        <v>1</v>
+      </c>
       <c r="AC20" s="31"/>
       <c r="AD20" s="31"/>
       <c r="AE20" s="31"/>
@@ -3956,7 +4070,9 @@
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="59"/>
-      <c r="E21" s="61"/>
+      <c r="E21" s="61" t="s">
+        <v>118</v>
+      </c>
       <c r="F21" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3977,25 +4093,25 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K21" s="60" t="str">
+      <c r="K21" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L21" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L21" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M21" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M21" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N21" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="N21" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O21" s="65" t="str">
+        <v>1</v>
+      </c>
+      <c r="O21" s="65">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P21" s="62"/>
       <c r="Q21" s="63" t="str">
@@ -4017,12 +4133,16 @@
       <c r="U21" s="57"/>
       <c r="V21" s="57"/>
       <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
+      <c r="X21" s="57">
+        <v>1</v>
+      </c>
       <c r="Y21" s="57"/>
       <c r="Z21" s="57"/>
       <c r="AA21" s="57"/>
       <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
+      <c r="AC21" s="57">
+        <v>1</v>
+      </c>
       <c r="AD21" s="57"/>
       <c r="AE21" s="57"/>
       <c r="AF21" s="57"/>
@@ -4042,8 +4162,12 @@
         <v>91</v>
       </c>
       <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="29"/>
+      <c r="D22" s="37">
+        <v>0</v>
+      </c>
+      <c r="E22" s="29">
+        <v>19</v>
+      </c>
       <c r="F22" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4052,65 +4176,73 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H22" s="20" t="str">
+      <c r="H22" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I22" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I22" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J22" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J22" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K22" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K22" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L22" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="L22" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M22" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M22" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N22" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="N22" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O22" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O22" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="P22" s="38">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R22" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R22" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S22" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="S22" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T22" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="T22" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U22" s="31"/>
       <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
+      <c r="W22" s="31">
+        <v>1</v>
+      </c>
+      <c r="X22" s="31">
+        <v>1</v>
+      </c>
       <c r="Y22" s="31"/>
       <c r="Z22" s="31"/>
       <c r="AA22" s="31"/>
       <c r="AB22" s="31"/>
       <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
+      <c r="AD22" s="31">
+        <v>1</v>
+      </c>
       <c r="AE22" s="31"/>
       <c r="AF22" s="31"/>
       <c r="AG22" s="36"/>
@@ -4129,8 +4261,12 @@
         <v>112</v>
       </c>
       <c r="C23" s="44"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="61"/>
+      <c r="D23" s="59">
+        <v>6</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>117</v>
+      </c>
       <c r="F23" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4139,37 +4275,37 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H23" s="59" t="str">
+      <c r="H23" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I23" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="I23" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J23" s="61" t="str">
+        <v>1</v>
+      </c>
+      <c r="J23" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K23" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="K23" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L23" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L23" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M23" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M23" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N23" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N23" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O23" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O23" s="65">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P23" s="62"/>
       <c r="Q23" s="63" t="str">
@@ -4216,8 +4352,12 @@
         <v>113</v>
       </c>
       <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="29"/>
+      <c r="D24" s="37">
+        <v>7</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>117</v>
+      </c>
       <c r="F24" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4226,37 +4366,37 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H24" s="20" t="str">
+      <c r="H24" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I24" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I24" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J24" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="J24" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K24" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="K24" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L24" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="L24" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M24" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M24" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N24" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N24" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O24" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O24" s="64">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P24" s="38"/>
       <c r="Q24" s="39" t="str">
@@ -4302,48 +4442,54 @@
       <c r="B25" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="59" t="str">
+      <c r="C25" s="44">
+        <v>2</v>
+      </c>
+      <c r="D25" s="59">
+        <v>0</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="59">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G25" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="G25" s="59">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H25" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="H25" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I25" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="I25" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J25" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="J25" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K25" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="K25" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L25" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L25" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M25" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M25" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N25" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N25" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O25" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O25" s="65">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P25" s="62"/>
       <c r="Q25" s="63" t="str">
@@ -4366,7 +4512,9 @@
       <c r="V25" s="57"/>
       <c r="W25" s="57"/>
       <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
+      <c r="Y25" s="57">
+        <v>1</v>
+      </c>
       <c r="Z25" s="57"/>
       <c r="AA25" s="57"/>
       <c r="AB25" s="57"/>
@@ -7084,74 +7232,24 @@
     <protectedRange sqref="A1:E1048576" name="区域1" securityDescriptor=""/>
   </protectedRanges>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="AL1 U62:AF1048576 AJ62:AK1048576">
-    <cfRule type="cellIs" priority="23" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM1">
-    <cfRule type="cellIs" priority="22" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U1:AB1">
     <cfRule type="cellIs" priority="35" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ1:AK1">
-    <cfRule type="cellIs" priority="29" operator="notEqual">
+  <conditionalFormatting sqref="U62:AF1048576 AJ62:AK1048576">
+    <cfRule type="cellIs" priority="23" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AK3">
-    <cfRule type="cellIs" dxfId="14" priority="27" operator="equal">
+  <conditionalFormatting sqref="U2:AM61">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AM3">
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH3">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI3">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:AF3">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL4:AM61">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG4:AH61">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI4:AI61">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4:AF61">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ4:AK61">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="AJ1:AM1">
+    <cfRule type="cellIs" priority="22" operator="notEqual">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
@@ -7180,7 +7278,7 @@
   </sheetPr>
   <dimension ref="A1:AX63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z26" sqref="Z26"/>
     </sheetView>
@@ -7360,61 +7458,61 @@
         <f>IF(ISBLANK(真值表!B2),"",真值表!B2)</f>
         <v>add</v>
       </c>
-      <c r="B2" s="37" t="str">
+      <c r="B2" s="37">
         <f>IF(ISBLANK(真值表!C2),"",真值表!C2)</f>
-        <v/>
-      </c>
-      <c r="C2" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37">
         <f>IF(ISBLANK(真值表!D2),"",真值表!D2)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D2" s="36" t="str">
         <f>IF(ISBLANK(真值表!E2),"",真值表!E2)</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="E2" s="55" t="str">
         <f>IF(真值表!F2=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F2=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F2" s="55" t="str">
         <f>IF(真值表!G2=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G2=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G2" s="55" t="str">
         <f>IF(真值表!H2=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H2=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H2" s="55" t="str">
         <f>IF(真值表!I2=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I2=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I2" s="55" t="str">
         <f>IF(真值表!J2=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J2=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J2" s="54" t="str">
         <f>IF(真值表!K2=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K2=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K2" s="54" t="str">
         <f>IF(真值表!L2=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L2=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L2" s="54" t="str">
         <f>IF(真值表!M2=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M2=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M2" s="54" t="str">
         <f>IF(真值表!N2=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N2=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N2" s="54" t="str">
         <f>IF(真值表!O2=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O2=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O2" s="53" t="str">
         <f>IF(LEN(CONCATENATE(E2,F2,G2,H2,I2,J2,K2,L2,M2,N2))=0,"",LEFT(CONCATENATE(E2,F2,G2,H2,I2,J2,K2,L2,M2,N2),LEN(CONCATENATE(E2,F2,G2,H2,I2,J2,K2,L2,M2,N2))-1))</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P2" s="24" t="str">
         <f>IF(真值表!Q2=1,$O2&amp;"+","")</f>
@@ -7422,7 +7520,7 @@
       </c>
       <c r="Q2" s="24" t="str">
         <f>IF(真值表!R2=1,$O2&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R2" s="24" t="str">
         <f>IF(真值表!S2=1,$O2&amp;"+","")</f>
@@ -7430,7 +7528,7 @@
       </c>
       <c r="S2" s="24" t="str">
         <f>IF(真值表!T2=1,$O2&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T2" s="24" t="str">
         <f>IF(真值表!U2=1,$O2&amp;"+","")</f>
@@ -7446,7 +7544,7 @@
       </c>
       <c r="W2" s="24" t="str">
         <f>IF(真值表!X2=1,$O2&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X2" s="24" t="str">
         <f>IF(真值表!Y2=1,$O2&amp;"+","")</f>
@@ -7514,61 +7612,61 @@
         <f>IF(ISBLANK(真值表!B3),"",真值表!B3)</f>
         <v>sub</v>
       </c>
-      <c r="B3" s="45" t="str">
+      <c r="B3" s="45">
         <f>IF(ISBLANK(真值表!C3),"",真值表!C3)</f>
-        <v/>
-      </c>
-      <c r="C3" s="52" t="str">
+        <v>32</v>
+      </c>
+      <c r="C3" s="52">
         <f>IF(ISBLANK(真值表!D3),"",真值表!D3)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D3" s="51" t="str">
         <f>IF(ISBLANK(真值表!E3),"",真值表!E3)</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="E3" s="47" t="str">
         <f>IF(真值表!F3=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F3=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;</v>
       </c>
       <c r="F3" s="47" t="str">
         <f>IF(真值表!G3=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G3=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G3" s="47" t="str">
         <f>IF(真值表!H3=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H3=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H3" s="47" t="str">
         <f>IF(真值表!I3=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I3=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I3" s="47" t="str">
         <f>IF(真值表!J3=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J3=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J3" s="46" t="str">
         <f>IF(真值表!K3=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K3=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K3" s="46" t="str">
         <f>IF(真值表!L3=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L3=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L3" s="46" t="str">
         <f>IF(真值表!M3=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M3=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M3" s="46" t="str">
         <f>IF(真值表!N3=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N3=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N3" s="46" t="str">
         <f>IF(真值表!O3=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O3=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O3" s="48" t="str">
         <f t="shared" ref="O3:O22" si="0">IF(LEN(CONCATENATE(E3,F3,G3,H3,I3,J3,K3,L3,M3,N3))=0,"",LEFT(CONCATENATE(E3,F3,G3,H3,I3,J3,K3,L3,M3,N3),LEN(CONCATENATE(E3,F3,G3,H3,I3,J3,K3,L3,M3,N3))-1))</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P3" s="49" t="str">
         <f>IF(真值表!Q3=1,$O3&amp;"+","")</f>
@@ -7576,11 +7674,11 @@
       </c>
       <c r="Q3" s="49" t="str">
         <f>IF(真值表!R3=1,$O3&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R3" s="49" t="str">
         <f>IF(真值表!S3=1,$O3&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S3" s="49" t="str">
         <f>IF(真值表!T3=1,$O3&amp;"+","")</f>
@@ -7600,7 +7698,7 @@
       </c>
       <c r="W3" s="49" t="str">
         <f>IF(真值表!X3=1,$O3&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X3" s="49" t="str">
         <f>IF(真值表!Y3=1,$O3&amp;"+","")</f>
@@ -7668,61 +7766,61 @@
         <f>IF(ISBLANK(真值表!B4),"",真值表!B4)</f>
         <v>and</v>
       </c>
-      <c r="B4" s="37" t="str">
+      <c r="B4" s="37">
         <f>IF(ISBLANK(真值表!C4),"",真值表!C4)</f>
-        <v/>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF(ISBLANK(真值表!D4),"",真值表!D4)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="D4" s="36" t="str">
         <f>IF(ISBLANK(真值表!E4),"",真值表!E4)</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="E4" s="55" t="str">
         <f>IF(真值表!F4=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F4=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F4" s="55" t="str">
         <f>IF(真值表!G4=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G4=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G4" s="55" t="str">
         <f>IF(真值表!H4=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H4=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H4" s="55" t="str">
         <f>IF(真值表!I4=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I4=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I4" s="55" t="str">
         <f>IF(真值表!J4=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J4=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J4" s="54" t="str">
         <f>IF(真值表!K4=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K4=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K4" s="54" t="str">
         <f>IF(真值表!L4=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L4=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L4" s="54" t="str">
         <f>IF(真值表!M4=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M4=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M4" s="54" t="str">
         <f>IF(真值表!N4=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N4=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N4" s="54" t="str">
         <f>IF(真值表!O4=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O4=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O4" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P4" s="24" t="str">
         <f>IF(真值表!Q4=1,$O4&amp;"+","")</f>
@@ -7730,15 +7828,15 @@
       </c>
       <c r="Q4" s="24" t="str">
         <f>IF(真值表!R4=1,$O4&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R4" s="24" t="str">
         <f>IF(真值表!S4=1,$O4&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S4" s="24" t="str">
         <f>IF(真值表!T4=1,$O4&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T4" s="24" t="str">
         <f>IF(真值表!U4=1,$O4&amp;"+","")</f>
@@ -7754,7 +7852,7 @@
       </c>
       <c r="W4" s="24" t="str">
         <f>IF(真值表!X4=1,$O4&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X4" s="24" t="str">
         <f>IF(真值表!Y4=1,$O4&amp;"+","")</f>
@@ -7822,65 +7920,65 @@
         <f>IF(ISBLANK(真值表!B5),"",真值表!B5)</f>
         <v>or</v>
       </c>
-      <c r="B5" s="45" t="str">
+      <c r="B5" s="45">
         <f>IF(ISBLANK(真值表!C5),"",真值表!C5)</f>
-        <v/>
-      </c>
-      <c r="C5" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="C5" s="52">
         <f>IF(ISBLANK(真值表!D5),"",真值表!D5)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="D5" s="51" t="str">
         <f>IF(ISBLANK(真值表!E5),"",真值表!E5)</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="E5" s="47" t="str">
         <f>IF(真值表!F5=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F5=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F5" s="47" t="str">
         <f>IF(真值表!G5=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G5=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G5" s="47" t="str">
         <f>IF(真值表!H5=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H5=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H5" s="47" t="str">
         <f>IF(真值表!I5=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I5=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I5" s="47" t="str">
         <f>IF(真值表!J5=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J5=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J5" s="46" t="str">
         <f>IF(真值表!K5=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K5=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K5" s="46" t="str">
         <f>IF(真值表!L5=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L5=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L5" s="46" t="str">
         <f>IF(真值表!M5=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M5=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M5" s="46" t="str">
         <f>IF(真值表!N5=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N5=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N5" s="46" t="str">
         <f>IF(真值表!O5=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O5=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O5" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P5" s="49" t="str">
         <f>IF(真值表!Q5=1,$O5&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q5" s="49" t="str">
         <f>IF(真值表!R5=1,$O5&amp;"+","")</f>
@@ -7908,7 +8006,7 @@
       </c>
       <c r="W5" s="49" t="str">
         <f>IF(真值表!X5=1,$O5&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X5" s="49" t="str">
         <f>IF(真值表!Y5=1,$O5&amp;"+","")</f>
@@ -7976,65 +8074,65 @@
         <f>IF(ISBLANK(真值表!B6),"",真值表!B6)</f>
         <v>slt</v>
       </c>
-      <c r="B6" s="37" t="str">
+      <c r="B6" s="37">
         <f>IF(ISBLANK(真值表!C6),"",真值表!C6)</f>
-        <v/>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF(ISBLANK(真值表!D6),"",真值表!D6)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="D6" s="36" t="str">
         <f>IF(ISBLANK(真值表!E6),"",真值表!E6)</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="E6" s="55" t="str">
         <f>IF(真值表!F6=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F6=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F6" s="55" t="str">
         <f>IF(真值表!G6=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G6=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G6" s="55" t="str">
         <f>IF(真值表!H6=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H6=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H6" s="55" t="str">
         <f>IF(真值表!I6=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I6=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I6" s="55" t="str">
         <f>IF(真值表!J6=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J6=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J6" s="54" t="str">
         <f>IF(真值表!K6=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K6=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K6" s="54" t="str">
         <f>IF(真值表!L6=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L6=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L6" s="54" t="str">
         <f>IF(真值表!M6=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M6=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M6" s="54" t="str">
         <f>IF(真值表!N6=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N6=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N6" s="54" t="str">
         <f>IF(真值表!O6=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O6=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O6" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P6" s="24" t="str">
         <f>IF(真值表!Q6=1,$O6&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q6" s="24" t="str">
         <f>IF(真值表!R6=1,$O6&amp;"+","")</f>
@@ -8042,11 +8140,11 @@
       </c>
       <c r="R6" s="24" t="str">
         <f>IF(真值表!S6=1,$O6&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S6" s="24" t="str">
         <f>IF(真值表!T6=1,$O6&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T6" s="24" t="str">
         <f>IF(真值表!U6=1,$O6&amp;"+","")</f>
@@ -8062,7 +8160,7 @@
       </c>
       <c r="W6" s="24" t="str">
         <f>IF(真值表!X6=1,$O6&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X6" s="24" t="str">
         <f>IF(真值表!Y6=1,$O6&amp;"+","")</f>
@@ -8130,69 +8228,69 @@
         <f>IF(ISBLANK(真值表!B7),"",真值表!B7)</f>
         <v>sltu</v>
       </c>
-      <c r="B7" s="45" t="str">
+      <c r="B7" s="45">
         <f>IF(ISBLANK(真值表!C7),"",真值表!C7)</f>
-        <v/>
-      </c>
-      <c r="C7" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="C7" s="52">
         <f>IF(ISBLANK(真值表!D7),"",真值表!D7)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="D7" s="51" t="str">
         <f>IF(ISBLANK(真值表!E7),"",真值表!E7)</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="E7" s="47" t="str">
         <f>IF(真值表!F7=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F7=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F7" s="47" t="str">
         <f>IF(真值表!G7=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G7=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G7" s="47" t="str">
         <f>IF(真值表!H7=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H7=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H7" s="47" t="str">
         <f>IF(真值表!I7=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I7=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I7" s="47" t="str">
         <f>IF(真值表!J7=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J7=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J7" s="46" t="str">
         <f>IF(真值表!K7=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K7=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K7" s="46" t="str">
         <f>IF(真值表!L7=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L7=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L7" s="46" t="str">
         <f>IF(真值表!M7=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M7=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M7" s="46" t="str">
         <f>IF(真值表!N7=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N7=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N7" s="46" t="str">
         <f>IF(真值表!O7=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O7=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O7" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P7" s="49" t="str">
         <f>IF(真值表!Q7=1,$O7&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q7" s="49" t="str">
         <f>IF(真值表!R7=1,$O7&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R7" s="49" t="str">
         <f>IF(真值表!S7=1,$O7&amp;"+","")</f>
@@ -8216,7 +8314,7 @@
       </c>
       <c r="W7" s="49" t="str">
         <f>IF(真值表!X7=1,$O7&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X7" s="49" t="str">
         <f>IF(真值表!Y7=1,$O7&amp;"+","")</f>
@@ -8288,13 +8386,13 @@
         <f>IF(ISBLANK(真值表!C8),"",真值表!C8)</f>
         <v/>
       </c>
-      <c r="C8" s="37" t="str">
+      <c r="C8" s="37">
         <f>IF(ISBLANK(真值表!D8),"",真值表!D8)</f>
-        <v/>
-      </c>
-      <c r="D8" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="D8" s="36">
         <f>IF(ISBLANK(真值表!E8),"",真值表!E8)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E8" s="55" t="str">
         <f>IF(真值表!F8=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F8=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -8306,39 +8404,39 @@
       </c>
       <c r="G8" s="55" t="str">
         <f>IF(真值表!H8=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H8=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H8" s="55" t="str">
         <f>IF(真值表!I8=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I8=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I8" s="55" t="str">
         <f>IF(真值表!J8=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J8=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J8" s="54" t="str">
         <f>IF(真值表!K8=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K8=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K8" s="54" t="str">
         <f>IF(真值表!L8=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L8=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L8" s="54" t="str">
         <f>IF(真值表!M8=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M8=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M8" s="54" t="str">
         <f>IF(真值表!N8=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N8=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N8" s="54" t="str">
         <f>IF(真值表!O8=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O8=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O8" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P8" s="24" t="str">
         <f>IF(真值表!Q8=1,$O8&amp;"+","")</f>
@@ -8346,7 +8444,7 @@
       </c>
       <c r="Q8" s="24" t="str">
         <f>IF(真值表!R8=1,$O8&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R8" s="24" t="str">
         <f>IF(真值表!S8=1,$O8&amp;"+","")</f>
@@ -8354,7 +8452,7 @@
       </c>
       <c r="S8" s="24" t="str">
         <f>IF(真值表!T8=1,$O8&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T8" s="24" t="str">
         <f>IF(真值表!U8=1,$O8&amp;"+","")</f>
@@ -8366,11 +8464,11 @@
       </c>
       <c r="V8" s="24" t="str">
         <f>IF(真值表!W8=1,$O8&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W8" s="24" t="str">
         <f>IF(真值表!X8=1,$O8&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X8" s="24" t="str">
         <f>IF(真值表!Y8=1,$O8&amp;"+","")</f>
@@ -8442,13 +8540,13 @@
         <f>IF(ISBLANK(真值表!C9),"",真值表!C9)</f>
         <v/>
       </c>
-      <c r="C9" s="52" t="str">
+      <c r="C9" s="52">
         <f>IF(ISBLANK(真值表!D9),"",真值表!D9)</f>
-        <v/>
-      </c>
-      <c r="D9" s="51" t="str">
+        <v>7</v>
+      </c>
+      <c r="D9" s="51">
         <f>IF(ISBLANK(真值表!E9),"",真值表!E9)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E9" s="47" t="str">
         <f>IF(真值表!F9=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F9=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -8460,39 +8558,39 @@
       </c>
       <c r="G9" s="47" t="str">
         <f>IF(真值表!H9=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H9=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H9" s="47" t="str">
         <f>IF(真值表!I9=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I9=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I9" s="47" t="str">
         <f>IF(真值表!J9=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J9=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J9" s="46" t="str">
         <f>IF(真值表!K9=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K9=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K9" s="46" t="str">
         <f>IF(真值表!L9=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L9=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L9" s="46" t="str">
         <f>IF(真值表!M9=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M9=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M9" s="46" t="str">
         <f>IF(真值表!N9=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N9=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N9" s="46" t="str">
         <f>IF(真值表!O9=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O9=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O9" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P9" s="49" t="str">
         <f>IF(真值表!Q9=1,$O9&amp;"+","")</f>
@@ -8500,15 +8598,15 @@
       </c>
       <c r="Q9" s="49" t="str">
         <f>IF(真值表!R9=1,$O9&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R9" s="49" t="str">
         <f>IF(真值表!S9=1,$O9&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S9" s="49" t="str">
         <f>IF(真值表!T9=1,$O9&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T9" s="49" t="str">
         <f>IF(真值表!U9=1,$O9&amp;"+","")</f>
@@ -8520,11 +8618,11 @@
       </c>
       <c r="V9" s="49" t="str">
         <f>IF(真值表!W9=1,$O9&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W9" s="49" t="str">
         <f>IF(真值表!X9=1,$O9&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X9" s="49" t="str">
         <f>IF(真值表!Y9=1,$O9&amp;"+","")</f>
@@ -8596,13 +8694,13 @@
         <f>IF(ISBLANK(真值表!C10),"",真值表!C10)</f>
         <v/>
       </c>
-      <c r="C10" s="37" t="str">
+      <c r="C10" s="37">
         <f>IF(ISBLANK(真值表!D10),"",真值表!D10)</f>
-        <v/>
-      </c>
-      <c r="D10" s="36" t="str">
+        <v>6</v>
+      </c>
+      <c r="D10" s="36">
         <f>IF(ISBLANK(真值表!E10),"",真值表!E10)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E10" s="55" t="str">
         <f>IF(真值表!F10=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F10=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -8614,43 +8712,43 @@
       </c>
       <c r="G10" s="55" t="str">
         <f>IF(真值表!H10=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H10=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H10" s="55" t="str">
         <f>IF(真值表!I10=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I10=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I10" s="55" t="str">
         <f>IF(真值表!J10=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J10=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J10" s="54" t="str">
         <f>IF(真值表!K10=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K10=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K10" s="54" t="str">
         <f>IF(真值表!L10=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L10=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L10" s="54" t="str">
         <f>IF(真值表!M10=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M10=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M10" s="54" t="str">
         <f>IF(真值表!N10=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N10=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N10" s="54" t="str">
         <f>IF(真值表!O10=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O10=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O10" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P10" s="24" t="str">
         <f>IF(真值表!Q10=1,$O10&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q10" s="24" t="str">
         <f>IF(真值表!R10=1,$O10&amp;"+","")</f>
@@ -8674,11 +8772,11 @@
       </c>
       <c r="V10" s="24" t="str">
         <f>IF(真值表!W10=1,$O10&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W10" s="24" t="str">
         <f>IF(真值表!X10=1,$O10&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X10" s="24" t="str">
         <f>IF(真值表!Y10=1,$O10&amp;"+","")</f>
@@ -8750,13 +8848,13 @@
         <f>IF(ISBLANK(真值表!C11),"",真值表!C11)</f>
         <v/>
       </c>
-      <c r="C11" s="52" t="str">
+      <c r="C11" s="52">
         <f>IF(ISBLANK(真值表!D11),"",真值表!D11)</f>
-        <v/>
-      </c>
-      <c r="D11" s="51" t="str">
+        <v>4</v>
+      </c>
+      <c r="D11" s="51">
         <f>IF(ISBLANK(真值表!E11),"",真值表!E11)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E11" s="47" t="str">
         <f>IF(真值表!F11=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F11=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -8768,43 +8866,43 @@
       </c>
       <c r="G11" s="47" t="str">
         <f>IF(真值表!H11=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H11=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H11" s="47" t="str">
         <f>IF(真值表!I11=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I11=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I11" s="47" t="str">
         <f>IF(真值表!J11=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J11=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J11" s="46" t="str">
         <f>IF(真值表!K11=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K11=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K11" s="46" t="str">
         <f>IF(真值表!L11=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L11=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L11" s="46" t="str">
         <f>IF(真值表!M11=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M11=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M11" s="46" t="str">
         <f>IF(真值表!N11=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N11=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N11" s="46" t="str">
         <f>IF(真值表!O11=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O11=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O11" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P11" s="49" t="str">
         <f>IF(真值表!Q11=1,$O11&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q11" s="49" t="str">
         <f>IF(真值表!R11=1,$O11&amp;"+","")</f>
@@ -8816,7 +8914,7 @@
       </c>
       <c r="S11" s="49" t="str">
         <f>IF(真值表!T11=1,$O11&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T11" s="49" t="str">
         <f>IF(真值表!U11=1,$O11&amp;"+","")</f>
@@ -8828,11 +8926,11 @@
       </c>
       <c r="V11" s="49" t="str">
         <f>IF(真值表!W11=1,$O11&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W11" s="49" t="str">
         <f>IF(真值表!X11=1,$O11&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X11" s="49" t="str">
         <f>IF(真值表!Y11=1,$O11&amp;"+","")</f>
@@ -8904,13 +9002,13 @@
         <f>IF(ISBLANK(真值表!C12),"",真值表!C12)</f>
         <v/>
       </c>
-      <c r="C12" s="37" t="str">
+      <c r="C12" s="37">
         <f>IF(ISBLANK(真值表!D12),"",真值表!D12)</f>
-        <v/>
-      </c>
-      <c r="D12" s="36" t="str">
+        <v>2</v>
+      </c>
+      <c r="D12" s="36">
         <f>IF(ISBLANK(真值表!E12),"",真值表!E12)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E12" s="55" t="str">
         <f>IF(真值表!F12=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F12=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -8922,43 +9020,43 @@
       </c>
       <c r="G12" s="55" t="str">
         <f>IF(真值表!H12=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H12=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H12" s="55" t="str">
         <f>IF(真值表!I12=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I12=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I12" s="55" t="str">
         <f>IF(真值表!J12=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J12=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J12" s="54" t="str">
         <f>IF(真值表!K12=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K12=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K12" s="54" t="str">
         <f>IF(真值表!L12=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L12=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L12" s="54" t="str">
         <f>IF(真值表!M12=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M12=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M12" s="54" t="str">
         <f>IF(真值表!N12=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N12=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N12" s="54" t="str">
         <f>IF(真值表!O12=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O12=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O12" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P12" s="24" t="str">
         <f>IF(真值表!Q12=1,$O12&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q12" s="24" t="str">
         <f>IF(真值表!R12=1,$O12&amp;"+","")</f>
@@ -8966,11 +9064,11 @@
       </c>
       <c r="R12" s="24" t="str">
         <f>IF(真值表!S12=1,$O12&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S12" s="24" t="str">
         <f>IF(真值表!T12=1,$O12&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T12" s="24" t="str">
         <f>IF(真值表!U12=1,$O12&amp;"+","")</f>
@@ -8982,11 +9080,11 @@
       </c>
       <c r="V12" s="24" t="str">
         <f>IF(真值表!W12=1,$O12&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W12" s="24" t="str">
         <f>IF(真值表!X12=1,$O12&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X12" s="24" t="str">
         <f>IF(真值表!Y12=1,$O12&amp;"+","")</f>
@@ -9054,61 +9152,61 @@
         <f>IF(ISBLANK(真值表!B13),"",真值表!B13)</f>
         <v>slli</v>
       </c>
-      <c r="B13" s="45" t="str">
+      <c r="B13" s="45">
         <f>IF(ISBLANK(真值表!C13),"",真值表!C13)</f>
-        <v/>
-      </c>
-      <c r="C13" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="C13" s="52">
         <f>IF(ISBLANK(真值表!D13),"",真值表!D13)</f>
-        <v/>
-      </c>
-      <c r="D13" s="51" t="str">
+        <v>1</v>
+      </c>
+      <c r="D13" s="51">
         <f>IF(ISBLANK(真值表!E13),"",真值表!E13)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E13" s="47" t="str">
         <f>IF(真值表!F13=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F13=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F13" s="47" t="str">
         <f>IF(真值表!G13=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G13=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G13" s="47" t="str">
         <f>IF(真值表!H13=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H13=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H13" s="47" t="str">
         <f>IF(真值表!I13=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I13=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I13" s="47" t="str">
         <f>IF(真值表!J13=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J13=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J13" s="46" t="str">
         <f>IF(真值表!K13=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K13=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K13" s="46" t="str">
         <f>IF(真值表!L13=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L13=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L13" s="46" t="str">
         <f>IF(真值表!M13=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M13=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M13" s="46" t="str">
         <f>IF(真值表!N13=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N13=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N13" s="46" t="str">
         <f>IF(真值表!O13=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O13=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O13" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P13" s="49" t="str">
         <f>IF(真值表!Q13=1,$O13&amp;"+","")</f>
@@ -9136,11 +9234,11 @@
       </c>
       <c r="V13" s="49" t="str">
         <f>IF(真值表!W13=1,$O13&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W13" s="49" t="str">
         <f>IF(真值表!X13=1,$O13&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X13" s="49" t="str">
         <f>IF(真值表!Y13=1,$O13&amp;"+","")</f>
@@ -9208,61 +9306,61 @@
         <f>IF(ISBLANK(真值表!B14),"",真值表!B14)</f>
         <v>srli</v>
       </c>
-      <c r="B14" s="37" t="str">
+      <c r="B14" s="37">
         <f>IF(ISBLANK(真值表!C14),"",真值表!C14)</f>
-        <v/>
-      </c>
-      <c r="C14" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="C14" s="37">
         <f>IF(ISBLANK(真值表!D14),"",真值表!D14)</f>
-        <v/>
-      </c>
-      <c r="D14" s="36" t="str">
+        <v>5</v>
+      </c>
+      <c r="D14" s="36">
         <f>IF(ISBLANK(真值表!E14),"",真值表!E14)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E14" s="55" t="str">
         <f>IF(真值表!F14=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F14=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F14" s="55" t="str">
         <f>IF(真值表!G14=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G14=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G14" s="55" t="str">
         <f>IF(真值表!H14=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H14=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H14" s="55" t="str">
         <f>IF(真值表!I14=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I14=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I14" s="55" t="str">
         <f>IF(真值表!J14=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J14=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J14" s="54" t="str">
         <f>IF(真值表!K14=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K14=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K14" s="54" t="str">
         <f>IF(真值表!L14=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L14=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L14" s="54" t="str">
         <f>IF(真值表!M14=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M14=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M14" s="54" t="str">
         <f>IF(真值表!N14=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N14=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N14" s="54" t="str">
         <f>IF(真值表!O14=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O14=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O14" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P14" s="24" t="str">
         <f>IF(真值表!Q14=1,$O14&amp;"+","")</f>
@@ -9274,7 +9372,7 @@
       </c>
       <c r="R14" s="24" t="str">
         <f>IF(真值表!S14=1,$O14&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S14" s="24" t="str">
         <f>IF(真值表!T14=1,$O14&amp;"+","")</f>
@@ -9290,11 +9388,11 @@
       </c>
       <c r="V14" s="24" t="str">
         <f>IF(真值表!W14=1,$O14&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W14" s="24" t="str">
         <f>IF(真值表!X14=1,$O14&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X14" s="24" t="str">
         <f>IF(真值表!Y14=1,$O14&amp;"+","")</f>
@@ -9362,61 +9460,61 @@
         <f>IF(ISBLANK(真值表!B15),"",真值表!B15)</f>
         <v>srai</v>
       </c>
-      <c r="B15" s="45" t="str">
+      <c r="B15" s="45">
         <f>IF(ISBLANK(真值表!C15),"",真值表!C15)</f>
-        <v/>
-      </c>
-      <c r="C15" s="52" t="str">
+        <v>32</v>
+      </c>
+      <c r="C15" s="52">
         <f>IF(ISBLANK(真值表!D15),"",真值表!D15)</f>
-        <v/>
-      </c>
-      <c r="D15" s="51" t="str">
+        <v>5</v>
+      </c>
+      <c r="D15" s="51">
         <f>IF(ISBLANK(真值表!E15),"",真值表!E15)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E15" s="47" t="str">
         <f>IF(真值表!F15=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F15=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;</v>
       </c>
       <c r="F15" s="47" t="str">
         <f>IF(真值表!G15=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G15=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G15" s="47" t="str">
         <f>IF(真值表!H15=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H15=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H15" s="47" t="str">
         <f>IF(真值表!I15=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I15=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I15" s="47" t="str">
         <f>IF(真值表!J15=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J15=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J15" s="46" t="str">
         <f>IF(真值表!K15=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K15=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K15" s="46" t="str">
         <f>IF(真值表!L15=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L15=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L15" s="46" t="str">
         <f>IF(真值表!M15=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M15=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M15" s="46" t="str">
         <f>IF(真值表!N15=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N15=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N15" s="46" t="str">
         <f>IF(真值表!O15=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O15=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O15" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P15" s="49" t="str">
         <f>IF(真值表!Q15=1,$O15&amp;"+","")</f>
@@ -9432,7 +9530,7 @@
       </c>
       <c r="S15" s="49" t="str">
         <f>IF(真值表!T15=1,$O15&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T15" s="49" t="str">
         <f>IF(真值表!U15=1,$O15&amp;"+","")</f>
@@ -9444,11 +9542,11 @@
       </c>
       <c r="V15" s="49" t="str">
         <f>IF(真值表!W15=1,$O15&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W15" s="49" t="str">
         <f>IF(真值表!X15=1,$O15&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X15" s="49" t="str">
         <f>IF(真值表!Y15=1,$O15&amp;"+","")</f>
@@ -9520,13 +9618,13 @@
         <f>IF(ISBLANK(真值表!C16),"",真值表!C16)</f>
         <v/>
       </c>
-      <c r="C16" s="37" t="str">
+      <c r="C16" s="37">
         <f>IF(ISBLANK(真值表!D16),"",真值表!D16)</f>
-        <v/>
-      </c>
-      <c r="D16" s="36" t="str">
+        <v>2</v>
+      </c>
+      <c r="D16" s="36">
         <f>IF(ISBLANK(真值表!E16),"",真值表!E16)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E16" s="55" t="str">
         <f>IF(真值表!F16=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F16=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -9538,39 +9636,39 @@
       </c>
       <c r="G16" s="55" t="str">
         <f>IF(真值表!H16=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H16=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H16" s="55" t="str">
         <f>IF(真值表!I16=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I16=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I16" s="55" t="str">
         <f>IF(真值表!J16=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J16=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J16" s="54" t="str">
         <f>IF(真值表!K16=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K16=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K16" s="54" t="str">
         <f>IF(真值表!L16=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L16=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L16" s="54" t="str">
         <f>IF(真值表!M16=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M16=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M16" s="54" t="str">
         <f>IF(真值表!N16=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N16=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N16" s="54" t="str">
         <f>IF(真值表!O16=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O16=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O16" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P16" s="24" t="str">
         <f>IF(真值表!Q16=1,$O16&amp;"+","")</f>
@@ -9590,7 +9688,7 @@
       </c>
       <c r="T16" s="24" t="str">
         <f>IF(真值表!U16=1,$O16&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="U16" s="24" t="str">
         <f>IF(真值表!V16=1,$O16&amp;"+","")</f>
@@ -9598,11 +9696,11 @@
       </c>
       <c r="V16" s="24" t="str">
         <f>IF(真值表!W16=1,$O16&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W16" s="24" t="str">
         <f>IF(真值表!X16=1,$O16&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X16" s="24" t="str">
         <f>IF(真值表!Y16=1,$O16&amp;"+","")</f>
@@ -9674,13 +9772,13 @@
         <f>IF(ISBLANK(真值表!C17),"",真值表!C17)</f>
         <v/>
       </c>
-      <c r="C17" s="52" t="str">
+      <c r="C17" s="52">
         <f>IF(ISBLANK(真值表!D17),"",真值表!D17)</f>
-        <v/>
-      </c>
-      <c r="D17" s="51" t="str">
+        <v>2</v>
+      </c>
+      <c r="D17" s="51">
         <f>IF(ISBLANK(真值表!E17),"",真值表!E17)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E17" s="47" t="str">
         <f>IF(真值表!F17=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F17=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -9692,39 +9790,39 @@
       </c>
       <c r="G17" s="47" t="str">
         <f>IF(真值表!H17=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H17=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H17" s="47" t="str">
         <f>IF(真值表!I17=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I17=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I17" s="47" t="str">
         <f>IF(真值表!J17=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J17=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J17" s="46" t="str">
         <f>IF(真值表!K17=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K17=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K17" s="46" t="str">
         <f>IF(真值表!L17=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L17=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L17" s="46" t="str">
         <f>IF(真值表!M17=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M17=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M17" s="46" t="str">
         <f>IF(真值表!N17=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N17=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N17" s="46" t="str">
         <f>IF(真值表!O17=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O17=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O17" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P17" s="49" t="str">
         <f>IF(真值表!Q17=1,$O17&amp;"+","")</f>
@@ -9748,11 +9846,11 @@
       </c>
       <c r="U17" s="49" t="str">
         <f>IF(真值表!V17=1,$O17&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="V17" s="49" t="str">
         <f>IF(真值表!W17=1,$O17&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W17" s="49" t="str">
         <f>IF(真值表!X17=1,$O17&amp;"+","")</f>
@@ -9764,7 +9862,7 @@
       </c>
       <c r="Y17" s="49" t="str">
         <f>IF(真值表!Z17=1,$O17&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Z17" s="49" t="str">
         <f>IF(真值表!AA17=1,$O17&amp;"+","")</f>
@@ -9824,61 +9922,61 @@
         <f>IF(ISBLANK(真值表!B18),"",真值表!B18)</f>
         <v>ecall</v>
       </c>
-      <c r="B18" s="37" t="str">
+      <c r="B18" s="37">
         <f>IF(ISBLANK(真值表!C18),"",真值表!C18)</f>
-        <v/>
-      </c>
-      <c r="C18" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="C18" s="37">
         <f>IF(ISBLANK(真值表!D18),"",真值表!D18)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D18" s="36" t="str">
         <f>IF(ISBLANK(真值表!E18),"",真值表!E18)</f>
-        <v/>
+        <v>1C</v>
       </c>
       <c r="E18" s="55" t="str">
         <f>IF(真值表!F18=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F18=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F18" s="55" t="str">
         <f>IF(真值表!G18=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G18=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G18" s="55" t="str">
         <f>IF(真值表!H18=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H18=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H18" s="55" t="str">
         <f>IF(真值表!I18=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I18=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I18" s="55" t="str">
         <f>IF(真值表!J18=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J18=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J18" s="54" t="str">
         <f>IF(真值表!K18=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K18=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K18" s="54" t="str">
         <f>IF(真值表!L18=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L18=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L18" s="54" t="str">
         <f>IF(真值表!M18=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M18=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M18" s="54" t="str">
         <f>IF(真值表!N18=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N18=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N18" s="54" t="str">
         <f>IF(真值表!O18=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O18=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O18" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P18" s="24" t="str">
         <f>IF(真值表!Q18=1,$O18&amp;"+","")</f>
@@ -9914,7 +10012,7 @@
       </c>
       <c r="X18" s="24" t="str">
         <f>IF(真值表!Y18=1,$O18&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Y18" s="24" t="str">
         <f>IF(真值表!Z18=1,$O18&amp;"+","")</f>
@@ -9982,13 +10080,13 @@
         <f>IF(ISBLANK(真值表!C19),"",真值表!C19)</f>
         <v/>
       </c>
-      <c r="C19" s="52" t="str">
+      <c r="C19" s="52">
         <f>IF(ISBLANK(真值表!D19),"",真值表!D19)</f>
-        <v/>
-      </c>
-      <c r="D19" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="D19" s="51">
         <f>IF(ISBLANK(真值表!E19),"",真值表!E19)</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="E19" s="47" t="str">
         <f>IF(真值表!F19=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F19=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -10000,39 +10098,39 @@
       </c>
       <c r="G19" s="47" t="str">
         <f>IF(真值表!H19=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H19=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H19" s="47" t="str">
         <f>IF(真值表!I19=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I19=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I19" s="47" t="str">
         <f>IF(真值表!J19=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J19=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J19" s="46" t="str">
         <f>IF(真值表!K19=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K19=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K19" s="46" t="str">
         <f>IF(真值表!L19=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L19=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L19" s="46" t="str">
         <f>IF(真值表!M19=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M19=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M19" s="46" t="str">
         <f>IF(真值表!N19=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N19=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N19" s="46" t="str">
         <f>IF(真值表!O19=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O19=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O19" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P19" s="49" t="str">
         <f>IF(真值表!Q19=1,$O19&amp;"+","")</f>
@@ -10040,11 +10138,11 @@
       </c>
       <c r="Q19" s="49" t="str">
         <f>IF(真值表!R19=1,$O19&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R19" s="49" t="str">
         <f>IF(真值表!S19=1,$O19&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S19" s="49" t="str">
         <f>IF(真值表!T19=1,$O19&amp;"+","")</f>
@@ -10076,7 +10174,7 @@
       </c>
       <c r="Z19" s="49" t="str">
         <f>IF(真值表!AA19=1,$O19&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AA19" s="49" t="str">
         <f>IF(真值表!AB19=1,$O19&amp;"+","")</f>
@@ -10136,13 +10234,13 @@
         <f>IF(ISBLANK(真值表!C20),"",真值表!C20)</f>
         <v/>
       </c>
-      <c r="C20" s="37" t="str">
+      <c r="C20" s="37">
         <f>IF(ISBLANK(真值表!D20),"",真值表!D20)</f>
-        <v/>
-      </c>
-      <c r="D20" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="D20" s="36">
         <f>IF(ISBLANK(真值表!E20),"",真值表!E20)</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="E20" s="55" t="str">
         <f>IF(真值表!F20=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F20=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -10154,39 +10252,39 @@
       </c>
       <c r="G20" s="55" t="str">
         <f>IF(真值表!H20=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H20=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H20" s="55" t="str">
         <f>IF(真值表!I20=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I20=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I20" s="55" t="str">
         <f>IF(真值表!J20=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J20=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J20" s="54" t="str">
         <f>IF(真值表!K20=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K20=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K20" s="54" t="str">
         <f>IF(真值表!L20=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L20=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L20" s="54" t="str">
         <f>IF(真值表!M20=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M20=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M20" s="54" t="str">
         <f>IF(真值表!N20=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N20=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N20" s="54" t="str">
         <f>IF(真值表!O20=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O20=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O20" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P20" s="24" t="str">
         <f>IF(真值表!Q20=1,$O20&amp;"+","")</f>
@@ -10194,11 +10292,11 @@
       </c>
       <c r="Q20" s="24" t="str">
         <f>IF(真值表!R20=1,$O20&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R20" s="24" t="str">
         <f>IF(真值表!S20=1,$O20&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S20" s="24" t="str">
         <f>IF(真值表!T20=1,$O20&amp;"+","")</f>
@@ -10234,7 +10332,7 @@
       </c>
       <c r="AA20" s="24" t="str">
         <f>IF(真值表!AB20=1,$O20&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AB20" s="24" t="str">
         <f>IF(真值表!AC20=1,$O20&amp;"+","")</f>
@@ -10296,7 +10394,7 @@
       </c>
       <c r="D21" s="51" t="str">
         <f>IF(ISBLANK(真值表!E21),"",真值表!E21)</f>
-        <v/>
+        <v>1B</v>
       </c>
       <c r="E21" s="47" t="str">
         <f>IF(真值表!F21=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F21=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -10320,27 +10418,27 @@
       </c>
       <c r="J21" s="46" t="str">
         <f>IF(真值表!K21=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K21=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K21" s="46" t="str">
         <f>IF(真值表!L21=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L21=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L21" s="46" t="str">
         <f>IF(真值表!M21=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M21=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M21" s="46" t="str">
         <f>IF(真值表!N21=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N21=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP3&amp;</v>
       </c>
       <c r="N21" s="46" t="str">
         <f>IF(真值表!O21=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O21=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP2&amp;</v>
       </c>
       <c r="O21" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve"> OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2</v>
       </c>
       <c r="P21" s="49" t="str">
         <f>IF(真值表!Q21=1,$O21&amp;"+","")</f>
@@ -10372,7 +10470,7 @@
       </c>
       <c r="W21" s="49" t="str">
         <f>IF(真值表!X21=1,$O21&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
       </c>
       <c r="X21" s="49" t="str">
         <f>IF(真值表!Y21=1,$O21&amp;"+","")</f>
@@ -10392,7 +10490,7 @@
       </c>
       <c r="AB21" s="49" t="str">
         <f>IF(真值表!AC21=1,$O21&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
       </c>
       <c r="AC21" s="49" t="str">
         <f>IF(真值表!AD21=1,$O21&amp;"+","")</f>
@@ -10444,13 +10542,13 @@
         <f>IF(ISBLANK(真值表!C22),"",真值表!C22)</f>
         <v/>
       </c>
-      <c r="C22" s="37" t="str">
+      <c r="C22" s="37">
         <f>IF(ISBLANK(真值表!D22),"",真值表!D22)</f>
-        <v/>
-      </c>
-      <c r="D22" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="D22" s="36">
         <f>IF(ISBLANK(真值表!E22),"",真值表!E22)</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="E22" s="55" t="str">
         <f>IF(真值表!F22=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F22=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -10462,39 +10560,39 @@
       </c>
       <c r="G22" s="55" t="str">
         <f>IF(真值表!H22=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H22=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H22" s="55" t="str">
         <f>IF(真值表!I22=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I22=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I22" s="55" t="str">
         <f>IF(真值表!J22=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J22=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J22" s="54" t="str">
         <f>IF(真值表!K22=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K22=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K22" s="54" t="str">
         <f>IF(真值表!L22=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L22=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L22" s="54" t="str">
         <f>IF(真值表!M22=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M22=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M22" s="54" t="str">
         <f>IF(真值表!N22=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N22=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N22" s="54" t="str">
         <f>IF(真值表!O22=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O22=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP2&amp;</v>
       </c>
       <c r="O22" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="P22" s="24" t="str">
         <f>IF(真值表!Q22=1,$O22&amp;"+","")</f>
@@ -10502,11 +10600,11 @@
       </c>
       <c r="Q22" s="24" t="str">
         <f>IF(真值表!R22=1,$O22&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="R22" s="24" t="str">
         <f>IF(真值表!S22=1,$O22&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="S22" s="24" t="str">
         <f>IF(真值表!T22=1,$O22&amp;"+","")</f>
@@ -10522,11 +10620,11 @@
       </c>
       <c r="V22" s="24" t="str">
         <f>IF(真值表!W22=1,$O22&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="W22" s="24" t="str">
         <f>IF(真值表!X22=1,$O22&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="X22" s="24" t="str">
         <f>IF(真值表!Y22=1,$O22&amp;"+","")</f>
@@ -10550,7 +10648,7 @@
       </c>
       <c r="AC22" s="24" t="str">
         <f>IF(真值表!AD22=1,$O22&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="AD22" s="24" t="str">
         <f>IF(真值表!AE22=1,$O22&amp;"+","")</f>
@@ -10598,13 +10696,13 @@
         <f>IF(ISBLANK(真值表!C23),"",真值表!C23)</f>
         <v/>
       </c>
-      <c r="C23" s="52" t="str">
+      <c r="C23" s="52">
         <f>IF(ISBLANK(真值表!D23),"",真值表!D23)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="D23" s="51" t="str">
         <f>IF(ISBLANK(真值表!E23),"",真值表!E23)</f>
-        <v/>
+        <v>1C</v>
       </c>
       <c r="E23" s="47" t="str">
         <f>IF(真值表!F23=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F23=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -10616,39 +10714,39 @@
       </c>
       <c r="G23" s="47" t="str">
         <f>IF(真值表!H23=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H23=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H23" s="47" t="str">
         <f>IF(真值表!I23=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I23=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I23" s="47" t="str">
         <f>IF(真值表!J23=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J23=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J23" s="46" t="str">
         <f>IF(真值表!K23=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K23=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K23" s="46" t="str">
         <f>IF(真值表!L23=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L23=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L23" s="46" t="str">
         <f>IF(真值表!M23=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M23=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M23" s="46" t="str">
         <f>IF(真值表!N23=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N23=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N23" s="46" t="str">
         <f>IF(真值表!O23=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O23=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O23" s="48" t="str">
         <f t="shared" ref="O23:O57" si="1">IF(LEN(CONCATENATE(E23,F23,G23,H23,I23,J23,K23,L23,M23,N23))=0,"",LEFT(CONCATENATE(E23,F23,G23,H23,I23,J23,K23,L23,M23,N23),LEN(CONCATENATE(E23,F23,G23,H23,I23,J23,K23,L23,M23,N23))-1))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P23" s="49" t="str">
         <f>IF(真值表!Q23=1,$O23&amp;"+","")</f>
@@ -10752,13 +10850,13 @@
         <f>IF(ISBLANK(真值表!C24),"",真值表!C24)</f>
         <v/>
       </c>
-      <c r="C24" s="37" t="str">
+      <c r="C24" s="37">
         <f>IF(ISBLANK(真值表!D24),"",真值表!D24)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="D24" s="36" t="str">
         <f>IF(ISBLANK(真值表!E24),"",真值表!E24)</f>
-        <v/>
+        <v>1C</v>
       </c>
       <c r="E24" s="55" t="str">
         <f>IF(真值表!F24=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F24=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -10770,39 +10868,39 @@
       </c>
       <c r="G24" s="55" t="str">
         <f>IF(真值表!H24=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H24=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H24" s="55" t="str">
         <f>IF(真值表!I24=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I24=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I24" s="55" t="str">
         <f>IF(真值表!J24=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J24=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J24" s="54" t="str">
         <f>IF(真值表!K24=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K24=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K24" s="54" t="str">
         <f>IF(真值表!L24=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L24=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L24" s="54" t="str">
         <f>IF(真值表!M24=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M24=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M24" s="54" t="str">
         <f>IF(真值表!N24=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N24=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N24" s="54" t="str">
         <f>IF(真值表!O24=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O24=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O24" s="53" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P24" s="24" t="str">
         <f>IF(真值表!Q24=1,$O24&amp;"+","")</f>
@@ -10902,61 +11000,61 @@
         <f>IF(ISBLANK(真值表!B25),"",真值表!B25)</f>
         <v>URET</v>
       </c>
-      <c r="B25" s="45" t="str">
+      <c r="B25" s="45">
         <f>IF(ISBLANK(真值表!C25),"",真值表!C25)</f>
-        <v/>
-      </c>
-      <c r="C25" s="52" t="str">
+        <v>2</v>
+      </c>
+      <c r="C25" s="52">
         <f>IF(ISBLANK(真值表!D25),"",真值表!D25)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D25" s="51" t="str">
         <f>IF(ISBLANK(真值表!E25),"",真值表!E25)</f>
-        <v/>
+        <v>1C</v>
       </c>
       <c r="E25" s="47" t="str">
         <f>IF(真值表!F25=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F25=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F25" s="47" t="str">
         <f>IF(真值表!G25=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G25=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G25" s="47" t="str">
         <f>IF(真值表!H25=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H25=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H25" s="47" t="str">
         <f>IF(真值表!I25=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I25=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I25" s="47" t="str">
         <f>IF(真值表!J25=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J25=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J25" s="46" t="str">
         <f>IF(真值表!K25=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K25=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K25" s="46" t="str">
         <f>IF(真值表!L25=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L25=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L25" s="46" t="str">
         <f>IF(真值表!M25=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M25=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M25" s="46" t="str">
         <f>IF(真值表!N25=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N25=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N25" s="46" t="str">
         <f>IF(真值表!O25=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O25=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O25" s="48" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P25" s="49" t="str">
         <f>IF(真值表!Q25=1,$O25&amp;"+","")</f>
@@ -10992,7 +11090,7 @@
       </c>
       <c r="X25" s="49" t="str">
         <f>IF(真值表!Y25=1,$O25&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Y25" s="49" t="str">
         <f>IF(真值表!Z25=1,$O25&amp;"+","")</f>
@@ -15999,59 +16097,59 @@
       <c r="O58" s="72"/>
       <c r="P58" s="30" t="str">
         <f t="shared" ref="P58:AL58" si="2">IF(LEN(P59)&gt;1,LEFT(P59,LEN(P59)-1),"")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Q58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="R58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="S58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="T58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="U58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="V58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="W58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="X58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Y58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Z58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AA58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AB58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2</v>
       </c>
       <c r="AC58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="AD58" s="32" t="str">
         <f t="shared" si="2"/>
@@ -16094,64 +16192,64 @@
       <c r="P59" t="str">
         <f>CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30,P31,P32,P33,P34,P35,P36,P37,P38,P39,P40,P41,P42,P43,P44,P45,P46,P47,P48,P49,P50,P51,P52,P53,P54,P55,P56,P57,
 )</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q59" t="str">
         <f>CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47,Q48,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q56,Q57,
 )</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="R59" t="str">
         <f>CONCATENATE(R2,R3,R4,R5,R6,R7,R8,R9,R10,R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R44,R45,R46,R47,R48,R49,R50,R51,R52,R53,R54,R55,R56,R57,
 )</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="S59" t="str">
         <f>CONCATENATE(S2,S3,S4,S5,S6,S7,S8,S9,S10,S11,S12,S13,S14,S15,S16,S17,S18,S19,S20,S21,S22,S23,S24,S25,S26,S27,S28,S29,S30,S31,S32,S33,S34,S35,S36,S37,S38,S39,S40,S41,S42,S43,S44,S45,S46,S47,S48,S49,S50,S51,S52,S53,S54,S55,S56,S57,
 )</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T59" t="str">
         <f>CONCATENATE(T2,T3,T4,T5,T6,T7,T8,T9,T10,T11,T12,T13,T14,T15,T16,T17,T18,T19,T20,T21,T22,T23,T24,T25,T26,T27,T28,T29,T30,T31,T32,T33,T34,T35,T36,T37,T38,T39,T40,T41,T42,T43,T44,T45,T46,T47,T48,T49,T50,T51,T52,T53,T54,T55,T56,T57,
 )</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="U59" t="str">
         <f t="shared" ref="U59:AX59" si="3">CONCATENATE(U2,U3,U4,U5,U6,U7,U8,U9,U10,U11,U12,U13,U14,U15,U16,U17,U18,U19,U20,U21,U22,U23,U24,U25,U26,U27,U28,U29,U30,U31,U32,U33,U34,U35,U36,U37,U38,U39,U40,U41,U42,U43,U44,U45,U46,U47,U48,U49,U50,U51,U52,U53,U54,U55,U56,U57,
 )</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="V59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Y59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Z59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AA59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AB59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve"> OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
       </c>
       <c r="AC59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="AD59" t="str">
         <f t="shared" si="3"/>
@@ -16274,28 +16372,23 @@
     <mergeCell ref="P61:AA61"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="O1 AM59:AX59 P58:AL59">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+  <conditionalFormatting sqref="O1:AL1 AM59:AX59">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P60:AE60 P1:AE1 P64:AE1048576 P63 R63:AE63 P62:AE62 P2:AD3">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+  <conditionalFormatting sqref="P60:AE60 P62:AE62 P63 R63:AE63 P64:AE1048576">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF60:AI1048576 AF1:AL1">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AL57">
+  <conditionalFormatting sqref="P2:AL59">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:AD57">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="AF60:AI1048576">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16500,7 +16593,7 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
